--- a/fluxograma-projeto/fluxograma.xlsx
+++ b/fluxograma-projeto/fluxograma.xlsx
@@ -1973,7 +1973,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> LÂMPADA EM 505%</a:t>
+            <a:t> LÂMPADA EM 50%</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1000"/>
         </a:p>
@@ -2156,8 +2156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11604854" y="919841"/>
-          <a:ext cx="1825058" cy="1452563"/>
+          <a:off x="11483190" y="913437"/>
+          <a:ext cx="1803447" cy="1452563"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3126,9 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
